--- a/risk_list_tpl.xlsx
+++ b/risk_list_tpl.xlsx
@@ -88,7 +88,7 @@
     <t>Requirements Inflation</t>
   </si>
   <si>
-    <t>The concepts, requirements, number of tasks in a sprint and priorities of tasks can change during the project.</t>
+    <t>The concepts, requirements, number of tasks in a sprint and priorities of tasks can change during the project. When a requirement changes or new requirements are offered, it significantly impacts the ability of the developers to stick to the original timeline of a project.</t>
   </si>
   <si>
     <t>Schedule</t>
@@ -103,7 +103,7 @@
     <t>Lack of communication</t>
   </si>
   <si>
-    <t>Communication is essential for a software development project's efficiency.</t>
+    <t>Communication is essential for a software development project's efficiency. Misunderstandings in the workflow, low return on investment and even revenue loss result from a lack of or poor communication.</t>
   </si>
   <si>
     <t>Resource</t>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -170,6 +170,10 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -212,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -238,6 +242,9 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -578,7 +585,7 @@
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -587,35 +594,35 @@
       <c r="F3" s="8">
         <v>5.0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>0.7</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H20" si="1">+F3*G3</f>
         <v>3.5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="7">
@@ -627,7 +634,7 @@
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -636,35 +643,35 @@
       <c r="F4" s="8">
         <v>2.0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>0.5</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="7">
@@ -685,35 +692,35 @@
       <c r="F5" s="8">
         <v>4.0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>0.25</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="7">
@@ -734,497 +741,497 @@
       <c r="F6" s="8">
         <v>4.0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>0.8</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="7">
         <v>5.0</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="10">
+      <c r="G7" s="15"/>
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="7">
         <v>6.0</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="10">
+      <c r="G8" s="15"/>
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="7">
         <v>7.0</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="10">
+      <c r="G9" s="15"/>
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="7">
         <v>8.0</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10">
+      <c r="G10" s="15"/>
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="7">
         <v>9.0</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10">
+      <c r="G11" s="15"/>
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="7">
         <v>10.0</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10">
+      <c r="G12" s="15"/>
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="7">
         <v>11.0</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="10">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="7">
         <v>12.0</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10">
+      <c r="G14" s="15"/>
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="7">
         <v>13.0</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="10">
+      <c r="G15" s="15"/>
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="7">
         <v>14.0</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="10">
+      <c r="G16" s="15"/>
+      <c r="H16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="7">
         <v>15.0</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="10">
+      <c r="G17" s="15"/>
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="7">
         <v>16.0</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="10">
+      <c r="G18" s="15"/>
+      <c r="H18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="7">
         <v>17.0</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="10">
+      <c r="G19" s="15"/>
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="7">
         <v>18.0</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="10">
+      <c r="G20" s="15"/>
+      <c r="H20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2"/>
